--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_63_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_63_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[4.982836603251789, 5.7101271666888795]</t>
+          <t>[4.983439462294187, 5.709524307646482]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.1118854994559122, 0.5109017432235721]</t>
+          <t>[0.11191176013615589, 0.5108754825433284]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.002952193138529458</v>
+        <v>0.002948780788974537</v>
       </c>
       <c r="V2" t="n">
-        <v>0.002952193138529458</v>
+        <v>0.002948780788974537</v>
       </c>
       <c r="W2" t="n">
         <v>13.73021021021059</v>
